--- a/Docs/FITWEEN_fe_테스트케이스.xlsx
+++ b/Docs/FITWEEN_fe_테스트케이스.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/singco/Documents/dev자료/fitween/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jinhap\DOCUME~1\카카오~1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4DEB3DB-1B1E-564E-87DD-F6DB2FE7832E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE6E3091-60DC-4923-9B60-782187A1F9EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30080" yWindow="500" windowWidth="30080" windowHeight="33340" xr2:uid="{3B9E5ECE-F849-E04E-9303-06F56DB4F89F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3B9E5ECE-F849-E04E-9303-06F56DB4F89F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="144">
   <si>
     <t>대분류</t>
   </si>
@@ -537,6 +537,70 @@
   </si>
   <si>
     <t>기존에 입력한 위치정보가 입력되어 있는지 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채팅방 목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채팅방</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채팅방에서 뒤로가기 클릭시 채팅방 목록으로 이동 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새로운 메시지가 도착했을 때 알람 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새로운 메시지가 도착했을 때 마지막 메시지가 채팅방 정보에 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채팅방 정보에 상대방이름 , 채팅내용 , 읽지않은 메시지 개수가 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새로운 메시지가 도착했을때 읽지 않은 채팅방 목록이 갱신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채팅방 목록이 최근순으로 정렬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채팅방 목록에서 채팅방 클릭시 해당 채팅방으로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이전 대화내용들이 불러와지는지 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채팅 날짜가 변했을때 화면에 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빈 메시지는 전송이 되지 않는지 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상대방이 메시지를 읽었을 때 읽음으로 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엔터키를 입력하면 메시지가 전송</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실시간으로 주고 받는 채팅을 확인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -544,7 +608,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -582,6 +646,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -609,7 +682,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -693,13 +766,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -784,6 +870,36 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -793,34 +909,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1137,24 +1229,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1C4F86A-1BB0-F04F-93A8-0054B2A4D806}">
-  <dimension ref="A1:Z100"/>
+  <dimension ref="A1:Z113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="137" workbookViewId="0">
-      <selection activeCell="A91" sqref="A91:A99"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G101" sqref="G101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="10"/>
-    <col min="2" max="2" width="18.140625" style="23" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" style="23" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" style="23" customWidth="1"/>
-    <col min="5" max="5" width="78.42578125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="42.7109375" style="12" customWidth="1"/>
-    <col min="7" max="26" width="10.7109375" style="12"/>
+    <col min="1" max="1" width="10.6640625" style="10"/>
+    <col min="2" max="2" width="18.109375" style="23" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" style="23" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" style="23" customWidth="1"/>
+    <col min="5" max="5" width="78.44140625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="42.6640625" style="12" customWidth="1"/>
+    <col min="7" max="26" width="10.6640625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>5</v>
       </c>
@@ -1180,11 +1272,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1">
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18">
         <v>1</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="38" t="s">
         <v>83</v>
       </c>
       <c r="C2" s="21" t="s">
@@ -1200,12 +1292,12 @@
       <c r="G2" s="20"/>
       <c r="H2" s="20"/>
     </row>
-    <row r="3" spans="1:8" s="1" customFormat="1">
+    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="18">
         <v>2</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="28" t="s">
+      <c r="B3" s="39"/>
+      <c r="C3" s="38" t="s">
         <v>85</v>
       </c>
       <c r="D3" s="21" t="s">
@@ -1218,13 +1310,13 @@
       <c r="G3" s="20"/>
       <c r="H3" s="20"/>
     </row>
-    <row r="4" spans="1:8" s="1" customFormat="1">
+    <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18">
         <v>3</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="28" t="s">
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="38" t="s">
         <v>111</v>
       </c>
       <c r="E4" s="19" t="s">
@@ -1234,13 +1326,13 @@
       <c r="G4" s="20"/>
       <c r="H4" s="20"/>
     </row>
-    <row r="5" spans="1:8" s="1" customFormat="1">
+    <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="18">
         <v>4</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
       <c r="E5" s="19" t="s">
         <v>113</v>
       </c>
@@ -1248,13 +1340,13 @@
       <c r="G5" s="20"/>
       <c r="H5" s="20"/>
     </row>
-    <row r="6" spans="1:8" s="1" customFormat="1">
+    <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="18">
         <v>5</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
       <c r="E6" s="19" t="s">
         <v>114</v>
       </c>
@@ -1262,13 +1354,13 @@
       <c r="G6" s="20"/>
       <c r="H6" s="20"/>
     </row>
-    <row r="7" spans="1:8" s="1" customFormat="1">
+    <row r="7" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="18">
         <v>6</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
       <c r="E7" s="19" t="s">
         <v>115</v>
       </c>
@@ -1276,13 +1368,13 @@
       <c r="G7" s="20"/>
       <c r="H7" s="20"/>
     </row>
-    <row r="8" spans="1:8" s="1" customFormat="1">
+    <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="18">
         <v>7</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
       <c r="E8" s="19" t="s">
         <v>117</v>
       </c>
@@ -1290,13 +1382,13 @@
       <c r="G8" s="20"/>
       <c r="H8" s="20"/>
     </row>
-    <row r="9" spans="1:8" s="1" customFormat="1">
+    <row r="9" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="18">
         <v>8</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="30"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="40"/>
       <c r="E9" s="19" t="s">
         <v>116</v>
       </c>
@@ -1304,14 +1396,14 @@
       <c r="G9" s="20"/>
       <c r="H9" s="20"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="18">
         <v>9</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="35" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="24" t="s">
@@ -1324,12 +1416,12 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="18">
         <v>10</v>
       </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
       <c r="D11" s="22" t="s">
         <v>14</v>
       </c>
@@ -1340,15 +1432,15 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="18">
         <v>11</v>
       </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31" t="s">
+      <c r="B12" s="35"/>
+      <c r="C12" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="35" t="s">
         <v>17</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -1358,13 +1450,13 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="18">
         <v>12</v>
       </c>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
       <c r="E13" s="5" t="s">
         <v>19</v>
       </c>
@@ -1374,12 +1466,12 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="18">
         <v>16</v>
       </c>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
       <c r="D14" s="22" t="s">
         <v>25</v>
       </c>
@@ -1392,13 +1484,13 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="18">
         <v>17</v>
       </c>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31" t="s">
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35" t="s">
         <v>24</v>
       </c>
       <c r="E15" s="5" t="s">
@@ -1408,13 +1500,13 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="18">
         <v>18</v>
       </c>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
       <c r="E16" s="5" t="s">
         <v>27</v>
       </c>
@@ -1422,13 +1514,13 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="18">
         <v>19</v>
       </c>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
       <c r="E17" s="5" t="s">
         <v>55</v>
       </c>
@@ -1436,13 +1528,13 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="18">
         <v>20</v>
       </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
       <c r="E18" s="5" t="s">
         <v>23</v>
       </c>
@@ -1450,13 +1542,13 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="18">
         <v>21</v>
       </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
       <c r="E19" s="6" t="s">
         <v>33</v>
       </c>
@@ -1464,13 +1556,13 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="18">
         <v>22</v>
       </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
       <c r="E20" s="6" t="s">
         <v>34</v>
       </c>
@@ -1478,13 +1570,13 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="18">
         <v>23</v>
       </c>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
       <c r="E21" s="6" t="s">
         <v>28</v>
       </c>
@@ -1492,13 +1584,13 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="18">
         <v>24</v>
       </c>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
       <c r="E22" s="6" t="s">
         <v>29</v>
       </c>
@@ -1506,13 +1598,13 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="18">
         <v>25</v>
       </c>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
       <c r="E23" s="6" t="s">
         <v>30</v>
       </c>
@@ -1520,13 +1612,13 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="18">
         <v>26</v>
       </c>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
       <c r="E24" s="6" t="s">
         <v>31</v>
       </c>
@@ -1534,13 +1626,13 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="18">
         <v>27</v>
       </c>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
       <c r="E25" s="6" t="s">
         <v>32</v>
       </c>
@@ -1548,15 +1640,15 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="18">
         <v>28</v>
       </c>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31" t="s">
+      <c r="B26" s="35"/>
+      <c r="C26" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="31" t="s">
+      <c r="D26" s="35" t="s">
         <v>20</v>
       </c>
       <c r="E26" s="5" t="s">
@@ -1566,13 +1658,13 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="18">
         <v>29</v>
       </c>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
       <c r="E27" s="5" t="s">
         <v>22</v>
       </c>
@@ -1580,13 +1672,13 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="18">
         <v>30</v>
       </c>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31" t="s">
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35" t="s">
         <v>35</v>
       </c>
       <c r="E28" s="6" t="s">
@@ -1596,13 +1688,13 @@
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="18">
         <v>31</v>
       </c>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
       <c r="E29" s="6" t="s">
         <v>37</v>
       </c>
@@ -1610,13 +1702,13 @@
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="18">
         <v>32</v>
       </c>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31" t="s">
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35" t="s">
         <v>38</v>
       </c>
       <c r="E30" s="6" t="s">
@@ -1626,13 +1718,13 @@
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="18">
         <v>33</v>
       </c>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
       <c r="E31" s="6" t="s">
         <v>41</v>
       </c>
@@ -1640,13 +1732,13 @@
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="18">
         <v>34</v>
       </c>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31" t="s">
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35" t="s">
         <v>39</v>
       </c>
       <c r="E32" s="6" t="s">
@@ -1656,13 +1748,13 @@
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="18">
         <v>35</v>
       </c>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
       <c r="E33" s="6" t="s">
         <v>42</v>
       </c>
@@ -1670,7 +1762,7 @@
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="18">
         <v>36</v>
       </c>
@@ -1690,7 +1782,7 @@
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="18">
         <v>37</v>
       </c>
@@ -1708,7 +1800,7 @@
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="18">
         <v>38</v>
       </c>
@@ -1724,7 +1816,7 @@
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="18">
         <v>39</v>
       </c>
@@ -1740,13 +1832,13 @@
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="18">
         <v>40</v>
       </c>
       <c r="B38" s="33"/>
       <c r="C38" s="33"/>
-      <c r="D38" s="31" t="s">
+      <c r="D38" s="35" t="s">
         <v>47</v>
       </c>
       <c r="E38" s="6" t="s">
@@ -1756,13 +1848,13 @@
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="18">
         <v>41</v>
       </c>
       <c r="B39" s="33"/>
       <c r="C39" s="33"/>
-      <c r="D39" s="31"/>
+      <c r="D39" s="35"/>
       <c r="E39" s="6" t="s">
         <v>29</v>
       </c>
@@ -1770,13 +1862,13 @@
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="18">
         <v>42</v>
       </c>
       <c r="B40" s="33"/>
       <c r="C40" s="33"/>
-      <c r="D40" s="31"/>
+      <c r="D40" s="35"/>
       <c r="E40" s="6" t="s">
         <v>30</v>
       </c>
@@ -1784,7 +1876,7 @@
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="18">
         <v>43</v>
       </c>
@@ -1798,12 +1890,12 @@
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="18">
         <v>44</v>
       </c>
       <c r="B42" s="33"/>
-      <c r="C42" s="31" t="s">
+      <c r="C42" s="35" t="s">
         <v>53</v>
       </c>
       <c r="D42" s="22" t="s">
@@ -1816,7 +1908,7 @@
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="18">
         <v>45</v>
       </c>
@@ -1832,7 +1924,7 @@
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="18">
         <v>46</v>
       </c>
@@ -1852,7 +1944,7 @@
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="18">
         <v>47</v>
       </c>
@@ -1870,7 +1962,7 @@
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="18">
         <v>48</v>
       </c>
@@ -1884,7 +1976,7 @@
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="18">
         <v>49</v>
       </c>
@@ -1898,7 +1990,7 @@
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="18">
         <v>50</v>
       </c>
@@ -1914,7 +2006,7 @@
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="18">
         <v>51</v>
       </c>
@@ -1928,7 +2020,7 @@
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="18">
         <v>52</v>
       </c>
@@ -1942,7 +2034,7 @@
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="18">
         <v>53</v>
       </c>
@@ -1956,7 +2048,7 @@
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="18">
         <v>54</v>
       </c>
@@ -1972,7 +2064,7 @@
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="18">
         <v>55</v>
       </c>
@@ -1986,7 +2078,7 @@
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="18">
         <v>56</v>
       </c>
@@ -2006,7 +2098,7 @@
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="18">
         <v>57</v>
       </c>
@@ -2022,7 +2114,7 @@
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="18">
         <v>58</v>
       </c>
@@ -2036,7 +2128,7 @@
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="18">
         <v>59</v>
       </c>
@@ -2050,7 +2142,7 @@
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="18">
         <v>60</v>
       </c>
@@ -2068,7 +2160,7 @@
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="18">
         <v>61</v>
       </c>
@@ -2084,7 +2176,7 @@
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="18">
         <v>62</v>
       </c>
@@ -2098,7 +2190,7 @@
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="18">
         <v>63</v>
       </c>
@@ -2112,7 +2204,7 @@
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="18">
         <v>64</v>
       </c>
@@ -2128,7 +2220,7 @@
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="18">
         <v>65</v>
       </c>
@@ -2142,7 +2234,7 @@
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="18">
         <v>66</v>
       </c>
@@ -2156,7 +2248,7 @@
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="18">
         <v>67</v>
       </c>
@@ -2170,7 +2262,7 @@
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="18">
         <v>68</v>
       </c>
@@ -2184,7 +2276,7 @@
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="18">
         <v>69</v>
       </c>
@@ -2200,7 +2292,7 @@
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="18">
         <v>70</v>
       </c>
@@ -2214,7 +2306,7 @@
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="18">
         <v>71</v>
       </c>
@@ -2234,7 +2326,7 @@
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="18">
         <v>72</v>
       </c>
@@ -2250,7 +2342,7 @@
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="18">
         <v>75</v>
       </c>
@@ -2266,7 +2358,7 @@
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="18">
         <v>76</v>
       </c>
@@ -2282,7 +2374,7 @@
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="18">
         <v>77</v>
       </c>
@@ -2298,13 +2390,13 @@
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="18">
         <v>78</v>
       </c>
       <c r="B74" s="33"/>
       <c r="C74" s="33"/>
-      <c r="D74" s="35" t="s">
+      <c r="D74" s="36" t="s">
         <v>68</v>
       </c>
       <c r="E74" s="6" t="s">
@@ -2314,13 +2406,13 @@
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="18">
         <v>79</v>
       </c>
       <c r="B75" s="33"/>
       <c r="C75" s="33"/>
-      <c r="D75" s="36"/>
+      <c r="D75" s="37"/>
       <c r="E75" s="6" t="s">
         <v>72</v>
       </c>
@@ -2328,13 +2420,13 @@
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="18">
         <v>80</v>
       </c>
       <c r="B76" s="33"/>
       <c r="C76" s="33"/>
-      <c r="D76" s="35" t="s">
+      <c r="D76" s="36" t="s">
         <v>71</v>
       </c>
       <c r="E76" s="6" t="s">
@@ -2344,13 +2436,13 @@
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="18">
         <v>81</v>
       </c>
       <c r="B77" s="33"/>
       <c r="C77" s="34"/>
-      <c r="D77" s="36"/>
+      <c r="D77" s="37"/>
       <c r="E77" s="6" t="s">
         <v>73</v>
       </c>
@@ -2358,12 +2450,12 @@
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="18">
         <v>82</v>
       </c>
       <c r="B78" s="33"/>
-      <c r="C78" s="31" t="s">
+      <c r="C78" s="35" t="s">
         <v>64</v>
       </c>
       <c r="D78" s="22" t="s">
@@ -2376,12 +2468,12 @@
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="18">
         <v>83</v>
       </c>
       <c r="B79" s="34"/>
-      <c r="C79" s="31"/>
+      <c r="C79" s="35"/>
       <c r="D79" s="26" t="s">
         <v>54</v>
       </c>
@@ -2392,17 +2484,17 @@
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="18">
         <v>84</v>
       </c>
       <c r="B80" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="C80" s="31" t="s">
+      <c r="C80" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="D80" s="31" t="s">
+      <c r="D80" s="35" t="s">
         <v>17</v>
       </c>
       <c r="E80" s="5" t="s">
@@ -2412,13 +2504,13 @@
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="18">
         <v>85</v>
       </c>
       <c r="B81" s="33"/>
-      <c r="C81" s="31"/>
-      <c r="D81" s="31"/>
+      <c r="C81" s="35"/>
+      <c r="D81" s="35"/>
       <c r="E81" s="5" t="s">
         <v>19</v>
       </c>
@@ -2428,12 +2520,12 @@
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="18">
         <v>86</v>
       </c>
       <c r="B82" s="33"/>
-      <c r="C82" s="31"/>
+      <c r="C82" s="35"/>
       <c r="D82" s="32" t="s">
         <v>25</v>
       </c>
@@ -2444,12 +2536,12 @@
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="18">
         <v>87</v>
       </c>
       <c r="B83" s="33"/>
-      <c r="C83" s="31"/>
+      <c r="C83" s="35"/>
       <c r="D83" s="34"/>
       <c r="E83" s="11" t="s">
         <v>120</v>
@@ -2460,13 +2552,13 @@
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="18">
         <v>88</v>
       </c>
       <c r="B84" s="33"/>
-      <c r="C84" s="31"/>
-      <c r="D84" s="31" t="s">
+      <c r="C84" s="35"/>
+      <c r="D84" s="35" t="s">
         <v>24</v>
       </c>
       <c r="E84" s="5" t="s">
@@ -2476,13 +2568,13 @@
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="18">
         <v>89</v>
       </c>
       <c r="B85" s="33"/>
-      <c r="C85" s="31"/>
-      <c r="D85" s="31"/>
+      <c r="C85" s="35"/>
+      <c r="D85" s="35"/>
       <c r="E85" s="5" t="s">
         <v>27</v>
       </c>
@@ -2490,13 +2582,13 @@
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="18">
         <v>90</v>
       </c>
       <c r="B86" s="33"/>
-      <c r="C86" s="31"/>
-      <c r="D86" s="31"/>
+      <c r="C86" s="35"/>
+      <c r="D86" s="35"/>
       <c r="E86" s="5" t="s">
         <v>55</v>
       </c>
@@ -2504,13 +2596,13 @@
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="18">
         <v>91</v>
       </c>
       <c r="B87" s="33"/>
-      <c r="C87" s="31"/>
-      <c r="D87" s="31"/>
+      <c r="C87" s="35"/>
+      <c r="D87" s="35"/>
       <c r="E87" s="5" t="s">
         <v>23</v>
       </c>
@@ -2518,13 +2610,13 @@
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="18">
         <v>92</v>
       </c>
       <c r="B88" s="33"/>
-      <c r="C88" s="31"/>
-      <c r="D88" s="31"/>
+      <c r="C88" s="35"/>
+      <c r="D88" s="35"/>
       <c r="E88" s="6" t="s">
         <v>33</v>
       </c>
@@ -2532,13 +2624,13 @@
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="18">
         <v>93</v>
       </c>
       <c r="B89" s="33"/>
-      <c r="C89" s="31"/>
-      <c r="D89" s="31"/>
+      <c r="C89" s="35"/>
+      <c r="D89" s="35"/>
       <c r="E89" s="6" t="s">
         <v>34</v>
       </c>
@@ -2546,13 +2638,13 @@
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="18">
         <v>94</v>
       </c>
       <c r="B90" s="33"/>
-      <c r="C90" s="31"/>
-      <c r="D90" s="31"/>
+      <c r="C90" s="35"/>
+      <c r="D90" s="35"/>
       <c r="E90" s="6" t="s">
         <v>28</v>
       </c>
@@ -2560,13 +2652,13 @@
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
         <v>95</v>
       </c>
       <c r="B91" s="33"/>
-      <c r="C91" s="31"/>
-      <c r="D91" s="31"/>
+      <c r="C91" s="35"/>
+      <c r="D91" s="35"/>
       <c r="E91" s="6" t="s">
         <v>29</v>
       </c>
@@ -2574,13 +2666,13 @@
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
     </row>
-    <row r="92" spans="1:8">
-      <c r="A92" s="40">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A92" s="31">
         <v>96</v>
       </c>
       <c r="B92" s="34"/>
-      <c r="C92" s="31"/>
-      <c r="D92" s="31"/>
+      <c r="C92" s="35"/>
+      <c r="D92" s="35"/>
       <c r="E92" s="7" t="s">
         <v>32</v>
       </c>
@@ -2588,7 +2680,7 @@
       <c r="G92" s="8"/>
       <c r="H92" s="8"/>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
         <v>97</v>
       </c>
@@ -2608,49 +2700,49 @@
       <c r="G93" s="8"/>
       <c r="H93" s="8"/>
     </row>
-    <row r="94" spans="1:8" s="39" customFormat="1">
-      <c r="A94" s="40">
+    <row r="94" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="31">
         <v>98</v>
       </c>
       <c r="B94" s="33"/>
       <c r="C94" s="33"/>
       <c r="D94" s="33"/>
-      <c r="E94" s="38" t="s">
+      <c r="E94" s="29" t="s">
         <v>112</v>
       </c>
       <c r="F94" s="18"/>
       <c r="G94" s="20"/>
       <c r="H94" s="20"/>
     </row>
-    <row r="95" spans="1:8" s="39" customFormat="1">
+    <row r="95" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
         <v>99</v>
       </c>
       <c r="B95" s="33"/>
       <c r="C95" s="33"/>
       <c r="D95" s="33"/>
-      <c r="E95" s="38" t="s">
+      <c r="E95" s="29" t="s">
         <v>113</v>
       </c>
       <c r="F95" s="18"/>
       <c r="G95" s="20"/>
       <c r="H95" s="20"/>
     </row>
-    <row r="96" spans="1:8" s="39" customFormat="1">
-      <c r="A96" s="40">
+    <row r="96" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="31">
         <v>100</v>
       </c>
       <c r="B96" s="33"/>
       <c r="C96" s="34"/>
       <c r="D96" s="34"/>
-      <c r="E96" s="38" t="s">
+      <c r="E96" s="29" t="s">
         <v>114</v>
       </c>
       <c r="F96" s="18"/>
       <c r="G96" s="20"/>
       <c r="H96" s="20"/>
     </row>
-    <row r="97" spans="1:8" s="39" customFormat="1">
+    <row r="97" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
         <v>101</v>
       </c>
@@ -2661,76 +2753,218 @@
       <c r="D97" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="E97" s="39" t="s">
+      <c r="E97" s="30" t="s">
         <v>127</v>
       </c>
       <c r="F97" s="18"/>
       <c r="G97" s="20"/>
       <c r="H97" s="20"/>
     </row>
-    <row r="98" spans="1:8" s="39" customFormat="1">
-      <c r="A98" s="40">
+    <row r="98" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="31">
         <v>102</v>
       </c>
       <c r="B98" s="33"/>
       <c r="C98" s="33"/>
       <c r="D98" s="33"/>
-      <c r="E98" s="38" t="s">
+      <c r="E98" s="29" t="s">
         <v>115</v>
       </c>
       <c r="F98" s="18"/>
-      <c r="G98" s="20"/>
+      <c r="G98" s="42"/>
       <c r="H98" s="20"/>
     </row>
-    <row r="99" spans="1:8" s="39" customFormat="1">
+    <row r="99" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" s="4">
         <v>103</v>
       </c>
       <c r="B99" s="34"/>
       <c r="C99" s="34"/>
       <c r="D99" s="34"/>
-      <c r="E99" s="38" t="s">
+      <c r="E99" s="29" t="s">
         <v>117</v>
       </c>
       <c r="F99" s="18"/>
-      <c r="G99" s="20"/>
+      <c r="G99" s="42"/>
       <c r="H99" s="20"/>
     </row>
-    <row r="100" spans="1:8">
-      <c r="B100" s="37"/>
-      <c r="C100" s="37"/>
-      <c r="D100" s="37"/>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A100" s="4">
+        <v>104</v>
+      </c>
+      <c r="B100" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="C100" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="D100" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F100" s="3"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A101" s="4">
+        <v>105</v>
+      </c>
+      <c r="B101" s="41"/>
+      <c r="C101" s="41"/>
+      <c r="D101" s="41"/>
+      <c r="E101" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F101" s="3"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A102" s="4">
+        <v>106</v>
+      </c>
+      <c r="B102" s="41"/>
+      <c r="C102" s="41"/>
+      <c r="D102" s="41"/>
+      <c r="E102" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F102" s="3"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A103" s="4">
+        <v>107</v>
+      </c>
+      <c r="B103" s="41"/>
+      <c r="C103" s="41"/>
+      <c r="D103" s="41"/>
+      <c r="E103" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F103" s="3"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A104" s="4">
+        <v>108</v>
+      </c>
+      <c r="B104" s="41"/>
+      <c r="C104" s="41"/>
+      <c r="D104" s="41"/>
+      <c r="E104" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F104" s="3"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A105" s="4">
+        <v>109</v>
+      </c>
+      <c r="B105" s="41"/>
+      <c r="C105" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="D105" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F105" s="3"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A106" s="4">
+        <v>110</v>
+      </c>
+      <c r="B106" s="41"/>
+      <c r="C106" s="41"/>
+      <c r="D106" s="41"/>
+      <c r="E106" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="F106" s="3"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A107" s="4">
+        <v>111</v>
+      </c>
+      <c r="B107" s="41"/>
+      <c r="C107" s="41"/>
+      <c r="D107" s="41"/>
+      <c r="E107" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F107" s="3"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A108" s="4">
+        <v>112</v>
+      </c>
+      <c r="B108" s="41"/>
+      <c r="C108" s="41"/>
+      <c r="D108" s="41"/>
+      <c r="E108" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F108" s="3"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A109" s="4">
+        <v>113</v>
+      </c>
+      <c r="B109" s="41"/>
+      <c r="C109" s="41"/>
+      <c r="D109" s="41"/>
+      <c r="E109" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F109" s="3"/>
+      <c r="H109" s="30"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A110" s="4">
+        <v>114</v>
+      </c>
+      <c r="B110" s="41"/>
+      <c r="C110" s="41"/>
+      <c r="D110" s="41"/>
+      <c r="E110" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="F110" s="3"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A111" s="4">
+        <v>115</v>
+      </c>
+      <c r="B111" s="41"/>
+      <c r="C111" s="41"/>
+      <c r="D111" s="41"/>
+      <c r="E111" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="F111" s="3"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A112" s="4">
+        <v>116</v>
+      </c>
+      <c r="B112" s="41"/>
+      <c r="C112" s="41"/>
+      <c r="D112" s="41"/>
+      <c r="E112" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F112" s="3"/>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="C93:C96"/>
-    <mergeCell ref="B93:B99"/>
-    <mergeCell ref="D97:D99"/>
-    <mergeCell ref="D93:D96"/>
-    <mergeCell ref="C97:C99"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="C26:C33"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="C69:C77"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="B34:B43"/>
-    <mergeCell ref="C35:C41"/>
-    <mergeCell ref="D62:D66"/>
-    <mergeCell ref="B54:B68"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="C58:C68"/>
-    <mergeCell ref="D55:D57"/>
-    <mergeCell ref="C54:C57"/>
-    <mergeCell ref="B69:B79"/>
-    <mergeCell ref="C12:C25"/>
-    <mergeCell ref="C3:C9"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="C10:C11"/>
+  <mergeCells count="49">
+    <mergeCell ref="D100:D104"/>
+    <mergeCell ref="D105:D112"/>
+    <mergeCell ref="C100:C104"/>
+    <mergeCell ref="C105:C112"/>
+    <mergeCell ref="B100:B112"/>
     <mergeCell ref="D4:D9"/>
     <mergeCell ref="C80:C92"/>
     <mergeCell ref="D80:D81"/>
@@ -2747,6 +2981,34 @@
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="D26:D27"/>
     <mergeCell ref="D15:D25"/>
+    <mergeCell ref="C12:C25"/>
+    <mergeCell ref="C3:C9"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="C69:C77"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="B34:B43"/>
+    <mergeCell ref="C35:C41"/>
+    <mergeCell ref="D62:D66"/>
+    <mergeCell ref="B54:B68"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="C58:C68"/>
+    <mergeCell ref="D55:D57"/>
+    <mergeCell ref="C54:C57"/>
+    <mergeCell ref="B69:B79"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="C26:C33"/>
+    <mergeCell ref="C93:C96"/>
+    <mergeCell ref="B93:B99"/>
+    <mergeCell ref="D97:D99"/>
+    <mergeCell ref="D93:D96"/>
+    <mergeCell ref="C97:C99"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
